--- a/amandine.xlsx
+++ b/amandine.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amandine\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien Leroux\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDE7B31-A19E-4F9E-84A1-F54AD8488112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471DE3A4-247E-45E7-B08C-CCED1EB4F9D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId5"/>
+    <sheet name="réaliste" sheetId="4" r:id="rId4"/>
+    <sheet name="idéal" sheetId="6" r:id="rId5"/>
     <sheet name="Feuil5" sheetId="5" r:id="rId6"/>
     <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -29,19 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="144">
   <si>
     <t>VALLOUREC</t>
   </si>
@@ -295,15 +288,6 @@
     <t>mutuelle</t>
   </si>
   <si>
-    <t>bateau credit</t>
-  </si>
-  <si>
-    <t>place port</t>
-  </si>
-  <si>
-    <t>bourse</t>
-  </si>
-  <si>
     <t>POUR</t>
   </si>
   <si>
@@ -434,6 +418,54 @@
   </si>
   <si>
     <t>boite</t>
+  </si>
+  <si>
+    <t>Amandine</t>
+  </si>
+  <si>
+    <t>Julien</t>
+  </si>
+  <si>
+    <t>Demain</t>
+  </si>
+  <si>
+    <t>assurance mot</t>
+  </si>
+  <si>
+    <t>vêtement</t>
+  </si>
+  <si>
+    <t>vêtements</t>
+  </si>
+  <si>
+    <t>débits</t>
+  </si>
+  <si>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>Bourse</t>
+  </si>
+  <si>
+    <t>Remb terrain</t>
+  </si>
+  <si>
+    <t>Amnacrea</t>
+  </si>
+  <si>
+    <t>Loc terrain</t>
+  </si>
+  <si>
+    <t>Cap2web</t>
+  </si>
+  <si>
+    <t>epargne enfant</t>
+  </si>
+  <si>
+    <t>remb mobilhome</t>
+  </si>
+  <si>
+    <t>Remb mobilhome</t>
   </si>
 </sst>
 </file>
@@ -488,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +602,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -862,6 +912,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,6 +1042,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,32 +1424,32 @@
   <sheetData>
     <row r="1" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="I2" s="109" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="I2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="P2" s="110" t="s">
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="P2" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
     </row>
     <row r="3" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -1982,35 +2059,35 @@
       <c r="W14" s="7"/>
     </row>
     <row r="15" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="12">
         <f>SUM(G4:G13)</f>
         <v>3707.29</v>
       </c>
-      <c r="I15" s="91" t="s">
+      <c r="I15" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
       <c r="N15" s="12">
         <f>SUM(N2:N12)</f>
         <v>2511.81</v>
       </c>
-      <c r="P15" s="91" t="s">
+      <c r="P15" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="12">
         <f>SUM(U4:U14)</f>
         <v>1203.6200000000001</v>
@@ -2029,33 +2106,33 @@
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="90"/>
-      <c r="P17" s="84" t="s">
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="P17" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="86"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="91"/>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -2204,13 +2281,13 @@
         <f>SUM(N19)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
       <c r="U20" s="12">
         <f>SUM(U19)</f>
         <v>3502.4</v>
@@ -2263,24 +2340,24 @@
         <v>123.22</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="75" t="s">
+      <c r="I22" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-      <c r="P22" s="87" t="s">
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="82"/>
+      <c r="P22" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
     </row>
     <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -2313,28 +2390,28 @@
       <c r="L23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="78" t="s">
+      <c r="M23" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="79"/>
+      <c r="N23" s="84"/>
       <c r="P23" s="26" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R23" s="110" t="s">
+      <c r="R23" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="110"/>
-      <c r="T23" s="82" t="s">
+      <c r="S23" s="115"/>
+      <c r="T23" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82" t="s">
+      <c r="U23" s="87"/>
+      <c r="V23" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="W23" s="82"/>
+      <c r="W23" s="87"/>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
@@ -2371,11 +2448,11 @@
         <f>K24/16</f>
         <v>8.1656250000000004</v>
       </c>
-      <c r="M24" s="80">
+      <c r="M24" s="85">
         <f>K24/(G15+N15)</f>
         <v>2.10078628740493E-2</v>
       </c>
-      <c r="N24" s="81"/>
+      <c r="N24" s="86"/>
       <c r="P24" s="6">
         <f>G15</f>
         <v>3707.29</v>
@@ -2384,21 +2461,21 @@
         <f>N15</f>
         <v>2511.81</v>
       </c>
-      <c r="R24" s="106">
+      <c r="R24" s="111">
         <f>U15</f>
         <v>1203.6200000000001</v>
       </c>
-      <c r="S24" s="107"/>
-      <c r="T24" s="83">
+      <c r="S24" s="112"/>
+      <c r="T24" s="88">
         <f>Q24-P24+R24</f>
         <v>8.1400000000001</v>
       </c>
-      <c r="U24" s="83"/>
-      <c r="V24" s="94">
+      <c r="U24" s="88"/>
+      <c r="V24" s="99">
         <f>((1-((R24+Q24)/P24))*(-1))</f>
         <v>2.195673928934605E-3</v>
       </c>
-      <c r="W24" s="94"/>
+      <c r="W24" s="99"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
@@ -2439,24 +2516,24 @@
         <v>127.11</v>
       </c>
       <c r="H26" s="13"/>
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="72"/>
-      <c r="P26" s="87" t="s">
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
+      <c r="P26" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
     </row>
     <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
@@ -2499,18 +2576,18 @@
       <c r="Q27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="110" t="s">
+      <c r="R27" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="110"/>
-      <c r="T27" s="82" t="s">
+      <c r="S27" s="115"/>
+      <c r="T27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82" t="s">
+      <c r="U27" s="87"/>
+      <c r="V27" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="W27" s="82"/>
+      <c r="W27" s="87"/>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
@@ -2558,20 +2635,20 @@
       <c r="Q28" s="6">
         <v>0</v>
       </c>
-      <c r="R28" s="106">
+      <c r="R28" s="111">
         <f>U20</f>
         <v>3502.4</v>
       </c>
-      <c r="S28" s="107"/>
-      <c r="T28" s="83">
+      <c r="S28" s="112"/>
+      <c r="T28" s="88">
         <f>Q28-P28+R28</f>
         <v>509.50000000000045</v>
       </c>
-      <c r="U28" s="83"/>
-      <c r="V28" s="94">
+      <c r="U28" s="88"/>
+      <c r="V28" s="99">
         <v>0.1109493821292777</v>
       </c>
-      <c r="W28" s="94"/>
+      <c r="W28" s="99"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
@@ -2652,16 +2729,16 @@
         <f t="shared" ref="N30" si="3">((L30/K30)-1)*100</f>
         <v>-4.6392353421144445</v>
       </c>
-      <c r="P30" s="87" t="s">
+      <c r="P30" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
@@ -2708,18 +2785,18 @@
       <c r="Q31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="92" t="s">
+      <c r="R31" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="93"/>
-      <c r="T31" s="82" t="s">
+      <c r="S31" s="98"/>
+      <c r="T31" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82" t="s">
+      <c r="U31" s="87"/>
+      <c r="V31" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="W31" s="82"/>
+      <c r="W31" s="87"/>
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
@@ -2768,21 +2845,21 @@
         <f>Q24+Q28</f>
         <v>2511.81</v>
       </c>
-      <c r="R32" s="99">
+      <c r="R32" s="104">
         <f>R24+R28</f>
         <v>4706.0200000000004</v>
       </c>
-      <c r="S32" s="100"/>
-      <c r="T32" s="101">
+      <c r="S32" s="105"/>
+      <c r="T32" s="106">
         <f>Q32-P32+R32</f>
         <v>517.64000000000124</v>
       </c>
-      <c r="U32" s="102"/>
-      <c r="V32" s="94">
+      <c r="U32" s="107"/>
+      <c r="V32" s="99">
         <f>((1-((R32+Q32)/P32))*(-1))</f>
         <v>7.7257510607908086E-2</v>
       </c>
-      <c r="W32" s="94"/>
+      <c r="W32" s="99"/>
     </row>
     <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
@@ -2863,16 +2940,16 @@
         <f>((L34/K34)-1)*100</f>
         <v>6.4532621353708297</v>
       </c>
-      <c r="P34" s="103" t="s">
+      <c r="P34" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
     </row>
     <row r="35" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
@@ -2893,10 +2970,10 @@
         <v>124.99</v>
       </c>
       <c r="H35" s="13"/>
-      <c r="I35" s="73" t="s">
+      <c r="I35" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="79"/>
       <c r="K35" s="42">
         <f>SUM(K28:K34)</f>
         <v>3707.29</v>
@@ -2913,10 +2990,10 @@
         <f>((L35/K35)-1)*100</f>
         <v>-10.781460311979906</v>
       </c>
-      <c r="P35" s="104" t="s">
+      <c r="P35" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="105"/>
+      <c r="Q35" s="110"/>
       <c r="R35" s="29" t="s">
         <v>1</v>
       </c>
@@ -2955,10 +3032,10 @@
         <v>125</v>
       </c>
       <c r="H36" s="13"/>
-      <c r="P36" s="95" t="s">
+      <c r="P36" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="Q36" s="96"/>
+      <c r="Q36" s="101"/>
       <c r="R36" s="32">
         <v>17</v>
       </c>
@@ -3010,8 +3087,8 @@
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
       <c r="N37" s="63"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="98"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="103"/>
       <c r="R37" s="32">
         <v>17</v>
       </c>
@@ -3059,10 +3136,10 @@
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
       <c r="N38" s="63"/>
-      <c r="P38" s="95" t="s">
+      <c r="P38" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="96"/>
+      <c r="Q38" s="101"/>
       <c r="R38" s="32">
         <v>16</v>
       </c>
@@ -3110,8 +3187,8 @@
       <c r="L39" s="62"/>
       <c r="M39"/>
       <c r="N39" s="63"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="98"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="103"/>
       <c r="R39" s="32">
         <v>16</v>
       </c>
@@ -3159,10 +3236,10 @@
       <c r="L40" s="62"/>
       <c r="M40" s="62"/>
       <c r="N40" s="63"/>
-      <c r="P40" s="95" t="s">
+      <c r="P40" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="Q40" s="96"/>
+      <c r="Q40" s="101"/>
       <c r="R40" s="32">
         <v>20</v>
       </c>
@@ -3204,8 +3281,8 @@
         <v>124.78</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="98"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="103"/>
       <c r="R41" s="32">
         <v>20</v>
       </c>
@@ -3249,13 +3326,13 @@
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="12">
         <f>SUM(G18:G42)</f>
         <v>2992.8999999999996</v>
@@ -5058,7 +5135,7 @@
   <dimension ref="A2:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,25 +5155,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="D2" s="78" t="s">
+      <c r="B2" s="84"/>
+      <c r="D2" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="84"/>
       <c r="G2" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="L2" s="78" t="s">
+      <c r="J2" s="84"/>
+      <c r="L2" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="79"/>
+      <c r="M2" s="84"/>
       <c r="O2" s="65" t="s">
         <v>67</v>
       </c>
@@ -5427,14 +5504,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE93405B-63A8-4D1E-A0B0-98BBDF974A88}">
-  <dimension ref="B2:AB25"/>
+  <dimension ref="B2:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14:V15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -5453,675 +5531,1400 @@
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="1" customWidth="1"/>
     <col min="25" max="25" width="1.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="1.5703125" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.28515625" customWidth="1"/>
+    <col min="33" max="33" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B2" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="R2" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AH2" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="J2" s="107" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="J3" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="R2" s="78" t="s">
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="R3" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Z3" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AH3" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI3" s="112"/>
+      <c r="AJ3" s="112"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="79"/>
-      <c r="U2" s="78" t="s">
+      <c r="C4" s="123"/>
+      <c r="E4" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="X2" s="65" t="s">
+      <c r="F4" s="125"/>
+      <c r="H4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="111" t="s">
+      <c r="J4" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="E3" s="113" t="s">
+      <c r="K4" s="123"/>
+      <c r="M4" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="H3" s="69" t="s">
+      <c r="N4" s="125"/>
+      <c r="P4" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="R4" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="112"/>
-      <c r="M3" s="113" t="s">
+      <c r="S4" s="120"/>
+      <c r="U4" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="114"/>
-      <c r="P3" s="69" t="s">
+      <c r="V4" s="120"/>
+      <c r="X4" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="65" t="s">
+      <c r="Z4" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="120"/>
+      <c r="AC4" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="120"/>
+      <c r="AF4" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ4" s="65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="65">
+      <c r="C5" s="65">
+        <v>733</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="65">
+        <v>245.4</v>
+      </c>
+      <c r="H5" s="65">
+        <f>C10-F26</f>
+        <v>-56.5300000000002</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="65">
+        <v>733</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="65">
+        <v>122</v>
+      </c>
+      <c r="P5" s="65">
+        <f>K10-N26</f>
+        <v>224.49</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="65">
         <v>1700</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="65">
-        <v>435</v>
-      </c>
-      <c r="X3" s="65">
-        <f>S6-V21</f>
-        <v>24.150000000000091</v>
-      </c>
-      <c r="Z3">
-        <f>P4+X3</f>
-        <v>144.04999999999995</v>
-      </c>
-      <c r="AA3">
-        <f>Z3*12</f>
-        <v>1728.5999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="V5" s="65">
+        <v>553</v>
+      </c>
+      <c r="X5" s="65">
+        <f>S8-V23</f>
+        <v>65.150000000000091</v>
+      </c>
+      <c r="Z5" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="65">
-        <v>700</v>
-      </c>
-      <c r="E4" s="65" t="s">
+      <c r="AA5" s="65">
+        <v>1700</v>
+      </c>
+      <c r="AC5" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="65">
-        <v>215</v>
-      </c>
-      <c r="H4" s="65">
-        <f>C9-F25</f>
-        <v>-324.13000000000011</v>
-      </c>
-      <c r="J4" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="65">
-        <v>700</v>
-      </c>
-      <c r="M4" s="65" t="s">
+      <c r="AD5" s="65">
+        <v>122</v>
+      </c>
+      <c r="AF5" s="65">
+        <f>AA8-AD23</f>
+        <v>603.15000000000009</v>
+      </c>
+      <c r="AH5" s="65">
+        <f>AA8+K10</f>
+        <v>3263.34</v>
+      </c>
+      <c r="AI5" s="65">
+        <f>AD23+N26</f>
+        <v>2435.6999999999998</v>
+      </c>
+      <c r="AJ5" s="65">
+        <f>AF5+P5</f>
+        <v>827.6400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="65">
+        <v>300</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="65">
+        <v>18.27</v>
+      </c>
+      <c r="J6" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="65">
+        <v>300</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="R6" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="65">
+        <v>180</v>
+      </c>
+      <c r="U6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="65">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="65">
+        <v>180</v>
+      </c>
+      <c r="AC6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="65">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="65">
+        <v>175</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="65">
+        <v>20.09</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="65">
+        <v>175</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="65">
+        <v>20.09</v>
+      </c>
+      <c r="R7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="65">
+        <v>17</v>
+      </c>
+      <c r="U7" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="65">
+        <v>120</v>
+      </c>
+      <c r="Z7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="65">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="65">
+        <v>125</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="65">
+        <v>42</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="65">
+        <v>125</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="65">
+        <v>42</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="67">
+        <f>SUM(S5:S7)</f>
+        <v>1897</v>
+      </c>
+      <c r="U8" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="65">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="67">
+        <f>SUM(AA5:AA7)</f>
+        <v>1897</v>
+      </c>
+      <c r="AC8" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="65">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="65">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="65">
+        <v>125</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="65">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="65">
+        <v>65</v>
+      </c>
+      <c r="U9" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="65">
         <v>45</v>
       </c>
-      <c r="N4" s="65">
-        <v>235</v>
-      </c>
-      <c r="P4" s="65">
-        <f>K9-N25</f>
-        <v>119.89999999999986</v>
-      </c>
-      <c r="R4" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="S4" s="65">
+      <c r="AC9" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="67">
+        <f>SUM(C5:C9)</f>
+        <v>1366.34</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="65">
+        <v>25</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="67">
+        <f>SUM(K5:K9)</f>
+        <v>1366.34</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="65">
+        <v>12.5</v>
+      </c>
+      <c r="U10" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="65">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="AC10" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" s="65">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="65">
+        <v>40</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="65">
+        <v>15</v>
+      </c>
+      <c r="U11" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="65">
+        <v>200</v>
+      </c>
+      <c r="AC11" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E12" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="65">
+        <v>36</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="65">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="U12" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="65">
+        <v>20</v>
+      </c>
+      <c r="AC12" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E13" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="65">
+        <v>118.36</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="65">
+        <v>118.36</v>
+      </c>
+      <c r="U13" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="V13" s="65">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD13" s="65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="65">
+        <v>250</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="65">
+        <v>200</v>
+      </c>
+      <c r="U14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="65">
         <v>180</v>
       </c>
-      <c r="U4" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="65">
-        <v>7.5</v>
-      </c>
-      <c r="AA4">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="65">
-        <v>300</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="65">
-        <v>18.27</v>
-      </c>
-      <c r="J5" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="65">
-        <v>300</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="65">
-        <v>7.5</v>
-      </c>
-      <c r="R5" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="S5" s="65">
-        <v>17</v>
-      </c>
-      <c r="U5" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="65">
-        <v>65</v>
-      </c>
-      <c r="AA5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="65">
-        <v>175</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="65">
-        <v>20.09</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="65">
-        <v>175</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="65">
-        <v>20.09</v>
-      </c>
-      <c r="R6" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="67">
-        <f>SUM(S3:S5)</f>
-        <v>1897</v>
-      </c>
-      <c r="U6" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="65">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="65">
-        <v>125</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="65">
-        <v>42</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="65">
-        <v>125</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="65">
-        <v>0</v>
-      </c>
-      <c r="U7" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" s="65">
+      <c r="AC14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD14" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E15" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="65">
+        <v>35</v>
+      </c>
+      <c r="M15" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="65">
+        <v>35</v>
+      </c>
+      <c r="U15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" s="65">
+        <v>26.86</v>
+      </c>
+      <c r="AC15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD15" s="65">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="65">
+        <v>13.34</v>
+      </c>
+      <c r="M16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="65">
         <v>15</v>
       </c>
-      <c r="AA7">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="65">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="65">
-        <v>125</v>
-      </c>
-      <c r="J8" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="65">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="M8" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="65">
-        <v>65</v>
-      </c>
-      <c r="U8" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="65">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="AA8">
-        <f>AA7+AA5+AA4+AA3</f>
-        <v>6228.5999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="67">
-        <f>SUM(C4:C8)</f>
-        <v>1333.34</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="65">
-        <v>25</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="67">
-        <f>SUM(K4:K8)</f>
-        <v>1333.34</v>
-      </c>
-      <c r="M9" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="65">
-        <v>12.5</v>
-      </c>
-      <c r="U9" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="65">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E10" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="65">
-        <v>40</v>
-      </c>
-      <c r="M10" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="65">
-        <v>15</v>
-      </c>
-      <c r="U10" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="65">
-        <v>20</v>
-      </c>
-      <c r="Z10">
-        <v>1333</v>
-      </c>
-      <c r="AA10">
-        <v>92</v>
-      </c>
-      <c r="AB10">
-        <f>Z10/AA10</f>
-        <v>14.489130434782609</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E11" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="65">
-        <v>36</v>
-      </c>
-      <c r="M11" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="65">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="U11" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="V11" s="65">
-        <v>30</v>
-      </c>
-      <c r="Z11">
-        <v>1897</v>
-      </c>
-      <c r="AA11">
-        <v>140</v>
-      </c>
-      <c r="AB11">
-        <f>Z11/AA11</f>
-        <v>13.55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E12" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="65">
-        <v>118.36</v>
-      </c>
-      <c r="M12" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="65">
-        <v>118.36</v>
-      </c>
-      <c r="U12" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="V12" s="65">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E13" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="65">
-        <v>300</v>
-      </c>
-      <c r="M13" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="65">
-        <v>200</v>
-      </c>
-      <c r="U13" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="V13" s="65">
-        <v>26.86</v>
-      </c>
-      <c r="AA13">
-        <v>23</v>
-      </c>
-      <c r="AB13">
-        <f>AA13*4</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="U14" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="V14" s="65">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E15" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="65">
-        <v>13.34</v>
-      </c>
-      <c r="M15" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="65">
-        <v>15</v>
-      </c>
-      <c r="U15" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="V15" s="65">
-        <v>140</v>
-      </c>
-      <c r="AA15">
-        <v>35</v>
-      </c>
-      <c r="AB15">
-        <f>AA15*4</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E16" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="65">
-        <v>30</v>
-      </c>
-      <c r="M16" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="65">
-        <v>25</v>
-      </c>
       <c r="U16" s="65" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V16" s="65">
         <v>150</v>
       </c>
-      <c r="AB16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AC16" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD16" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E17" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="65">
+        <v>30</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="65">
+        <v>25</v>
+      </c>
+      <c r="U17" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="V17" s="65">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E18" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F18" s="65">
         <v>60</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="M18" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="65">
+      <c r="N18" s="65">
         <v>80</v>
       </c>
-      <c r="U17" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="V17" s="65">
+      <c r="U18" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="65">
+        <v>150</v>
+      </c>
+      <c r="AC18" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD18" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E19" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="65">
+        <v>41.41</v>
+      </c>
+      <c r="M19" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="65">
+        <v>41.41</v>
+      </c>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="AC19" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD19" s="65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="65">
+        <v>20</v>
+      </c>
+      <c r="M20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="65">
+        <v>20</v>
+      </c>
+      <c r="U20" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="V20" s="65">
+        <v>20</v>
+      </c>
+      <c r="AC20" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD20" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="65">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E18" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="65">
-        <v>41.41</v>
-      </c>
-      <c r="M18" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" s="65">
-        <v>27</v>
-      </c>
-      <c r="U18" s="65" t="s">
+      <c r="M21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="65">
+        <v>100</v>
+      </c>
+      <c r="U21" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="65">
+        <v>200</v>
+      </c>
+      <c r="AC21" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD21" s="65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E22" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="65">
+        <v>133</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="65">
+        <v>133</v>
+      </c>
+      <c r="U22" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="65">
+        <v>55</v>
+      </c>
+      <c r="AC22" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD22" s="65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E23" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E19" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="65">
-        <v>20</v>
-      </c>
-      <c r="M19" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="65">
-        <v>20</v>
-      </c>
-      <c r="U19" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" s="65">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E20" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="65">
-        <v>350</v>
-      </c>
-      <c r="M20" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="65">
-        <v>150</v>
-      </c>
-      <c r="U20" s="65" t="s">
+      <c r="F23" s="65">
+        <v>12</v>
+      </c>
+      <c r="M23" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="65">
+        <v>12</v>
+      </c>
+      <c r="U23" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" s="65">
+        <f>SUM(V5:V22)</f>
+        <v>1831.85</v>
+      </c>
+      <c r="AC23" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD23" s="65">
+        <f>SUM(AD5:AD22)</f>
+        <v>1293.8499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E24" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="65">
+        <v>50</v>
+      </c>
+      <c r="M24" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E25" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="65">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E21" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="65">
-        <v>133</v>
-      </c>
-      <c r="M21" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="65">
-        <v>133</v>
-      </c>
-      <c r="U21" s="66" t="s">
+      <c r="F25" s="65">
+        <v>8</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N25" s="65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="5:30" x14ac:dyDescent="0.25">
+      <c r="E26" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="V21" s="65">
-        <f>SUM(V3:V20)</f>
-        <v>1872.85</v>
-      </c>
-    </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E22" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="65">
-        <v>12</v>
-      </c>
-      <c r="M22" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E23" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="65">
-        <v>50</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E24" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="65">
-        <v>8</v>
-      </c>
-      <c r="M24" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="66" t="s">
+      <c r="F26" s="65">
+        <f>SUM(F5:F25)</f>
+        <v>1422.8700000000001</v>
+      </c>
+      <c r="M26" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="65">
-        <f>SUM(F4:F24)</f>
-        <v>1657.47</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="65">
-        <f>SUM(N4:N24)</f>
-        <v>1213.44</v>
+      <c r="N26" s="65">
+        <f>SUM(N5:N25)</f>
+        <v>1141.8499999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
+  <mergeCells count="16">
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="R2:AF2"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE253405-88A8-42EC-82EF-E21B575434DC}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.28515625" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="T2" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="L3" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="T3" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="F4" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="125"/>
+      <c r="I4" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="120"/>
+      <c r="O4" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="120"/>
+      <c r="R4" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="72">
+        <v>733</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="65">
+        <v>122</v>
+      </c>
+      <c r="I5" s="65">
+        <f>D12-G27</f>
+        <v>341.49</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="65">
+        <v>1700</v>
+      </c>
+      <c r="O5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="65">
+        <v>122</v>
+      </c>
+      <c r="R5" s="65">
+        <f>M10-P25</f>
+        <v>623.15000000000009</v>
+      </c>
+      <c r="T5" s="65">
+        <f>D12+M10</f>
+        <v>3663.34</v>
+      </c>
+      <c r="U5" s="65">
+        <f>G27+P24</f>
+        <v>1524.85</v>
+      </c>
+      <c r="V5" s="65">
+        <f>I5+R5</f>
+        <v>964.6400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="72">
+        <v>300</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="65">
+        <v>180</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="65">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="72">
+        <v>175</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="65">
+        <v>20.09</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="72">
+        <v>17</v>
+      </c>
+      <c r="O7" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="72">
+        <v>125</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="65">
+        <v>0</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="72">
+        <v>100</v>
+      </c>
+      <c r="O8" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="65">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="72">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="65">
+        <v>65</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="72">
+        <v>100</v>
+      </c>
+      <c r="O9" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="72">
+        <v>100</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="65">
+        <v>12.5</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="67">
+        <f>SUM(M5:M9)</f>
+        <v>2097</v>
+      </c>
+      <c r="O10" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="65">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="74">
+        <v>100</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="65">
+        <v>15</v>
+      </c>
+      <c r="O11" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="67">
+        <f>SUM(D5:D11)</f>
+        <v>1566.34</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="65">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="O12" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F13" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="65">
+        <v>118.36</v>
+      </c>
+      <c r="O13" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="65">
+        <v>200</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F15" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="65">
+        <v>35</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="65">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F16" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="65">
+        <v>15</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="65">
+        <v>25</v>
+      </c>
+      <c r="O17" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="65">
+        <v>80</v>
+      </c>
+      <c r="O18" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="65">
+        <v>41.41</v>
+      </c>
+      <c r="O19" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="65">
+        <v>20</v>
+      </c>
+      <c r="O20" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="65">
+        <v>150</v>
+      </c>
+      <c r="O21" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="65">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="65">
+        <v>133</v>
+      </c>
+      <c r="O22" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="65">
+        <v>12</v>
+      </c>
+      <c r="O23" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="65">
+        <v>50</v>
+      </c>
+      <c r="O24" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="65">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="65">
+        <v>8</v>
+      </c>
+      <c r="O25" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="65">
+        <f>SUM(P5:P24)</f>
+        <v>1473.85</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="65">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="65">
+        <f>SUM(G5:G26)</f>
+        <v>1224.8499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6149,141 +6952,141 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
         <v>109</v>
-      </c>
-      <c r="J4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
         <v>110</v>
-      </c>
-      <c r="J5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6293,20 +7096,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F44B882-DD74-41B7-B68E-7439A9CEF025}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12.9</v>
       </c>
@@ -6318,7 +7121,7 @@
         <v>93.023255813953483</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12.9</v>
       </c>
@@ -6345,44 +7148,78 @@
         <v>45.833333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f>M7*N7</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <f>M8*N8</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>O7+O8</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f>O10/12</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>0.15</v>
+      </c>
+      <c r="O12">
+        <f>O11/2</f>
+        <v>112.5</v>
       </c>
     </row>
   </sheetData>
